--- a/public/data/Data_2.xlsx
+++ b/public/data/Data_2.xlsx
@@ -356,6 +356,8 @@
     <col width="23.28" customWidth="1" min="2" max="2"/>
     <col width="23.28" customWidth="1" min="3" max="3"/>
     <col width="23.28" customWidth="1" min="4" max="4"/>
+    <col width="23.28" customWidth="1" min="5" max="5"/>
+    <col width="23.28" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.2" customHeight="1">
@@ -379,6 +381,16 @@
           <t>Descripcion</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Rol</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Tecnologias</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="19.2" customHeight="1">
       <c r="A2" t="inlineStr">
@@ -401,6 +413,16 @@
           <t>Sistema autónomo que convierte plástico PET reciclado en filamento para impresoras 3D mediante un sistema de control PID de temperatura y un motor de extrusión de precisión, ofreciendo una solución sostenible e innovadora para el reciclaje.</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Arduino</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="19.2" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -423,6 +445,16 @@
           <t>Sistema autónomo que emplea visión por computadora e inteligencia artificial para identificar y clasificar botellas de plástico PET en tiempo real, optimizando el reciclaje y promoviendo soluciones sostenibles con robótica e IA.</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Python, Arduino, CustomTkinter, Pillow, Keras, TensorFlow, TeachableMachine</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.2" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -444,6 +476,48 @@
         <is>
           <t>Sistema autónomo que Integra sensores industriales, GPS e IoT para detectar contaminación en tiempo real y contribuir a la preservación de ecosistemas hídricos.
 ​</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Python, ESP32, JavaScrip, HTML, CSS, SupaBase, Firebase</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.2" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bootcamp de Herramientas&lt;br&gt;Digitales</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HUB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HUB Networking</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Desarrollo de contenido programático, flexible y adaptable a cualquier público, para un bootcamp, donde se integró herramientas digitales e IA para potenciar la productividad. Con Canvas, Word, Excel y la suite de Google (Docs, Sheets, Slides, Drive) como herramientas principales para optimizar el flujo de trabajo, el diseño y la gestión de datos avanzada.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Líder técnico</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>office, google, note, gemini, canva</t>
         </is>
       </c>
     </row>

--- a/public/data/Data_2.xlsx
+++ b/public/data/Data_2.xlsx
@@ -459,7 +459,7 @@
     <row r="4" ht="19.2" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oil-Bot&lt;br&gt;Robot monitoreo acuático</t>
+          <t>Oil-Bot&lt;br&gt;Robot de monitoreo acuático</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
